--- a/public/files/daily/sample-daily.xlsx
+++ b/public/files/daily/sample-daily.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portrans\nozaki\public\files\daily\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\portrans\mikorin\public\files\daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8113FE-04E3-4074-ACE2-27833E45E100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEA696E-F34B-457B-9EA0-BC193FEBC47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{8AAE6ED2-B5B4-4E8D-B6FF-B27CE4F69FE6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AAE6ED2-B5B4-4E8D-B6FF-B27CE4F69FE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>planilla #</t>
   </si>
@@ -51,34 +51,28 @@
     <t>hora final AM</t>
   </si>
   <si>
-    <t>Tiempo Almuerzo</t>
-  </si>
-  <si>
     <t>hora inicio PM</t>
   </si>
   <si>
     <t>hora final PM</t>
   </si>
   <si>
-    <t>horas trabajadas</t>
-  </si>
-  <si>
-    <t>horas disponibilidad</t>
-  </si>
-  <si>
     <t>kilometros inicio</t>
   </si>
   <si>
     <t>kilometros fin</t>
   </si>
   <si>
-    <t>cantidad personas</t>
-  </si>
-  <si>
     <t xml:space="preserve">origen </t>
   </si>
   <si>
     <t>destino</t>
+  </si>
+  <si>
+    <t>cantidad de viajes</t>
+  </si>
+  <si>
+    <t>GLS/m3/TON</t>
   </si>
 </sst>
 </file>
@@ -430,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82721DAE-F2ED-455C-8357-F5D4F86BD954}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,17 +439,14 @@
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -490,15 +481,9 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
         <v>12</v>
       </c>
     </row>
